--- a/guia/requisitos.xlsx
+++ b/guia/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="126">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -49,10 +49,10 @@
     <t xml:space="preserve">R01</t>
   </si>
   <si>
-    <t xml:space="preserve">sdfsdfsdfsdfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skdjfksjf skjf hskjfh kjsdh fkjs hkjh fdjksh fkjsdh fkjs dfkjs dfkj sjkd fsjk fkjs fkjs fkjs fjks fjks hfkjs fjks hfjks hfjks hfjks hfjk sfjks fjks hfjks hjkf hsjkfs jk</t>
+    <t xml:space="preserve">Requisitos como incidencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisitos perfectamente definidos y convertidos en incidencias (issues) de GitHub.</t>
   </si>
   <si>
     <t xml:space="preserve">Mínimo</t>
@@ -70,67 +70,376 @@
     <t xml:space="preserve">R02</t>
   </si>
   <si>
-    <t xml:space="preserve">kdldjflgdfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdlksdljkfsldjfsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2</t>
+    <t xml:space="preserve">Código fuente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código fuente publicado en GitHub.</t>
   </si>
   <si>
     <t xml:space="preserve">R03</t>
   </si>
   <si>
-    <t xml:space="preserve">sdfsfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lkcvlkjxcjklcxljkwejlksdfvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v3</t>
+    <t xml:space="preserve">Estilo del código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo del código según las normas internas de Yii2 para el código y para las plantillas de las vistas.</t>
   </si>
   <si>
     <t xml:space="preserve">R04</t>
   </si>
   <si>
-    <t xml:space="preserve">sfsfsfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jk34jlk4n,lkjlksdflksdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
+    <t xml:space="preserve">Tres lanzamientos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres lanzamientos (releases) etiquetados en el repositorio como v1, v2 y v3.</t>
   </si>
   <si>
     <t xml:space="preserve">R05</t>
   </si>
   <si>
-    <t xml:space="preserve">xcvxcv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdkfjklsdfjldksf
-- sdlkfjlksdjfldksjflksjfdss
-- slkdjflksjflksjflksjkljfksldjfldks
-sldkjflskdjfdlskjflksdjflkdsjflkjslkfjslkjfdlskjflsjklfdjslkjlskjdflks
-klsdjfkljsdlkfjskldf
-sdklfjklsdjfklsdjflksdjfklsdjkl
-lñklllllllllllllllllllllllqweqweqweqew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difícil</t>
+    <t xml:space="preserve">README.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">README.md en el directorio raíz con la descripción principal del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación generada con yii2-apidoc y publicada en GitHub Pages a partir del contenido del directorio /docs:
+- Contenido:
+  - Guía general.
+  - API.
+- Formato: GitHub flavored Markdown (fuente) y HTML (resultado).
+- Usar make docs para crear la documentación.
+- Opcional: conversión a PDF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incidencias en GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración y resolución de todas las incidencias notificadas en GitHub.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etiquetas e hitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar etiquetas e hitos:
+- Etiquetas: mínimo, importante, opcional (además de las ya existentes).
+- Hitos: v1, v2, v3 (con fechas de entrega aproximadas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La rama master debe reflejar en todo momento el estado más estable de la aplicación, de manera que:
+- La rama master no debe contener bugs conocidos.
+- El desarrollo deberá hacerse en otras ramas creadas a tal efecto (una distinta por cada funcionalidad) y se irán combinado con la master una vez que se haya implementado la funcionalidad correspondiente.
+- La release actual en Heroku corresponderá siempre con el último commit de la rama master (usar los deploys automáticos de Heroku conectando la aplicación de Heroku con la rama master de GitHub).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar Waffle o similar para la gestión general del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final de cada iteración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al final de cada iteración:
+- Se realiza el lanzamiento que toque (v1, v2 o v3), etiquetando el commit correspondiente con el hito adecuado.
+- Se actualiza y publica la documentación.
+- Al final del Proyecto, se tiene que cumplir lo siguiente:
+  - Todas las incidencias cerradas con su debida justificación.
+  - En el backlog sólo pueden quedar tarjetas con prioridad opcional.
+  - El lanzamiento v3 desplegado en la nube.
+  - La documentación correctamente actualizada y publicada.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de formularios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de  los campos de los formularios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de ventanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de ventanas. Gestión de la apariencia de las ventanas. Creación de nuevas ventanas y comunicación entre ventanas. (Opcional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manejo de eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactividad  a través de mecanismos de manejo de eventos intuitivos y eficaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso y manipulación de las características del modelo de objetos del documento (DOM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almacenamiento en el lado del cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de mecanismos de almacenamiento en el lado del cliente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jQuery, jQuery UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de la librería jQuery, jQuery UI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugin no trabajado en clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir al menos un plugin no trabajado en clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilización de AJAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilización de mecanismos de comunicación asíncrona: AJAX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECMAScript2015 (ES6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de las nuevas incorporaciones del estándar ECMAScript2015 (ES6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar PHP 7.1 ó superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yii2 Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar Yii2 Framework versión 2.0.10 ó superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar PostgreSQL versión 9.6 ó superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue de la aplicación en la plataforma Heroku.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codeception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas funcionales con Codeception.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Climate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo y mantenibilidad del código fuente validados por Code Climate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicación escalable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación ha de ser escalable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnología AJAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación debe hacer en algún momento un uso apropiado de la tecnología AJAX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etiquetas semánticas de HTML5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para estructurar el contenido se utilizarán las etiquetas semánticas de HTML5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentación mediante CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo lo relacionado con la presentación se trabajará mediante CSS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El diseño será flexible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transiciones, transformaciones, animaciones y contenido multimedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existirán transiciones, transformaciones, animaciones y contenido multimedia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de microdatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de microdatos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación HTML5, CSS3 y accesibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se deberá comprobar que el código realizado supera:
+- El validador para HTML5, CSS3.
+- Nivel de accesibilidad AA.
+- Prueba del seis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño para varias resoluciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar el diseño para resoluciones grandes y pequeñas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varios navegadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprobar que el diseño es correcto en los siguientes navegadores:
+- Internet Explorer.
+- Chrome.
+- Mozilla Firefox.
+- Opera.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue en un Host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar el despliegue en un Host:
+- Utilizando algún servicio gratuito de hosting como los vistos en clase 
+- Instalar / configurar o solicitar el software necesario para desplegar el proyecto.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue en un servidor local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar un despliegue en un servidor local usando y configurando tres máquinas virtuales para:
+- Crear un servicio de Nombres de dominio.
+- Gestionar y administrar el servidor Apache tanto en Windows como Linux:
+  - Instalar el servidor y configurarlo.
+  - Configurar directivas.
+  - Usar directorios virtuales y redireccionamientos.
+  - Usar diferentes módulos estáticos y dinámicos.
+  - Usar autenticaciones.
+  - Usar ficheros de configuración personalizada de directorios.
+  - Usar HTTPS y certificados Digitales.
+</t>
   </si>
 </sst>
 </file>
@@ -224,11 +533,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -251,6 +556,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -268,46 +577,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="52.780612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.3928571428571"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="52.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="3" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="10.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -318,19 +627,19 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -341,114 +650,873 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>19</v>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>24</v>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="113.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="57.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="147.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="136.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="91.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="158.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D39" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E39" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F39" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G39" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
